--- a/forecast_summary_B0BJ5SDGXK.xlsx
+++ b/forecast_summary_B0BJ5SDGXK.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0.03937260144236591</v>
       </c>
       <c r="D2" t="n">
-        <v>14.73745917731979</v>
+        <v>14.29544626291615</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-0.1220444070294378</v>
       </c>
       <c r="D3" t="n">
-        <v>13.03521620199998</v>
+        <v>14.82483535716325</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-0.231440827888299</v>
       </c>
       <c r="D4" t="n">
-        <v>13.64285783289423</v>
+        <v>13.16815965967731</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-0.1672626765038524</v>
       </c>
       <c r="D5" t="n">
-        <v>14.10780780766265</v>
+        <v>13.79944029111987</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-0.02807433846349068</v>
       </c>
       <c r="D6" t="n">
-        <v>13.43129622099402</v>
+        <v>14.62662354951816</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>0.01182993072499963</v>
       </c>
       <c r="D7" t="n">
-        <v>13.9199540188342</v>
+        <v>13.53214383063518</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-0.07495448660856936</v>
       </c>
       <c r="D8" t="n">
-        <v>13.52922630236209</v>
+        <v>13.48928110445216</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-0.1850398583595152</v>
       </c>
       <c r="D9" t="n">
-        <v>13.75464415564852</v>
+        <v>14.33392535699734</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-0.2844605387738161</v>
       </c>
       <c r="D10" t="n">
-        <v>12.61089994849341</v>
+        <v>13.16541161155422</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-0.4601624049550518</v>
       </c>
       <c r="D11" t="n">
-        <v>12.34893623075549</v>
+        <v>13.13912285007427</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-0.7225712768630249</v>
       </c>
       <c r="D12" t="n">
-        <v>12.09758805513934</v>
+        <v>13.59416272113274</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>-0.8668040904240457</v>
       </c>
       <c r="D13" t="n">
-        <v>11.57833102254797</v>
+        <v>13.01114503199904</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-0.6667571533996957</v>
       </c>
       <c r="D14" t="n">
-        <v>13.52400314564745</v>
+        <v>12.5453007368681</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-0.2055164905298345</v>
       </c>
       <c r="D15" t="n">
-        <v>13.62524969954609</v>
+        <v>12.82753302767308</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>0.1056752888637031</v>
       </c>
       <c r="D16" t="n">
-        <v>13.40862470937819</v>
+        <v>13.41655383969107</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-0.09285795558862969</v>
       </c>
       <c r="D17" t="n">
-        <v>13.85732295691405</v>
+        <v>13.64726208748207</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-0.7583398986862816</v>
       </c>
       <c r="D18" t="n">
-        <v>12.14273286347062</v>
+        <v>12.85979800097264</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-1.520430506126428</v>
       </c>
       <c r="D19" t="n">
-        <v>12.04945371072461</v>
+        <v>12.0247559332511</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-2.041018793817593</v>
       </c>
       <c r="D20" t="n">
-        <v>11.48303219921448</v>
+        <v>12.49540675366915</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-2.210716622975363</v>
       </c>
       <c r="D21" t="n">
-        <v>11.86186188955472</v>
+        <v>10.92331113749094</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B660M A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1457,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
